--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D887EE0-6BA3-C84E-8CA9-0188561140B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50659D30-5859-3541-A060-BAB19173162A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>path</t>
   </si>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>【SNS】ディスクリプション</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>トップページタイトル</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -81,6 +77,29 @@
     <t>詳細ページタイトル</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>デザイン設計を、管理しやすいCSS設計に落としこむためのガイドライン</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オトシイコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CSSで管理するスタイル設計</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -531,7 +550,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -590,10 +609,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -607,10 +626,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>

--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50659D30-5859-3541-A060-BAB19173162A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD59C42-877D-8142-A174-724761ED8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>path</t>
   </si>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ディスクリプションサンプルテキスト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>キーワード,キーワード,キーワード</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -71,13 +67,6 @@
   </si>
   <si>
     <t>/detail/index.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>詳細ページタイトル</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -100,6 +89,56 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/push/index.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非同期処理のPWA確認</t>
+    <rPh sb="0" eb="5">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PUSH通知のSW登録</t>
+    <rPh sb="4" eb="6">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>非同期処理がある場合、PWAのキャッシュ動作確認をするためのテストページ</t>
+    <rPh sb="0" eb="5">
+      <t>ヒドウキ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SW重複登録ができないのでディレクトリを掘って登録する</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホッテ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -544,13 +583,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -609,39 +648,59 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD59C42-877D-8142-A174-724761ED8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0A2C50-4463-1443-94F0-61D3227E770D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>

--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0A2C50-4463-1443-94F0-61D3227E770D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B9EEB-0585-0F43-9D7D-5EE880C4A855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>path</t>
   </si>
@@ -139,6 +139,21 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/vue/index.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Vueのサンプル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一部Vueを入れる場合のサンプル</t>
+    <rPh sb="0" eb="2">
+      <t>イチブ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -583,13 +598,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -703,6 +718,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799B9EEB-0585-0F43-9D7D-5EE880C4A855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1775117-83EC-424F-BB75-C5D0ED3A26DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>path</t>
   </si>
@@ -155,6 +155,18 @@
     <rPh sb="0" eb="2">
       <t>イチブ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/page/react.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Reactのサンプル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Reactページのサンプル</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -598,13 +610,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:F5"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -738,6 +750,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/_developresources/_pug/data/sitemap.xlsx
+++ b/src/_developresources/_pug/data/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eri.takada/workspace/sampleDev/src/_developresources/_pug/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1775117-83EC-424F-BB75-C5D0ED3A26DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78663AC-61C3-374B-89C7-1DC6B83C0602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>/detail/index.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>デザイン設計を、管理しやすいCSS設計に落としこむためのガイドライン</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>/vue/index.html</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Vueのサンプル</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -167,6 +159,14 @@
   </si>
   <si>
     <t>Reactページのサンプル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/page/pwa.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/page/vue.html</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -616,7 +616,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -675,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
@@ -692,13 +692,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -732,13 +732,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
